--- a/Docs/ISIS1225 - Tablas de Datos Lab 5.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lina/Library/Mobile Documents/com~apple~CloudDocs/Universidad/EDA/ISIS1225-Laboratorio-5/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davni\Documents\David\Universidad\EDA\Lab 5\ISIS1225-Laboratorio-5-G3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956D6578-0A0A-6148-A156-5D7CA8FF2F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D81EE8-F2A4-4016-A78F-7B2193A53A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="01-Data" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Porcentaje de la muestra [pct]</t>
-  </si>
-  <si>
-    <t>Tamaño de la muestra (ARRAY_LIST)</t>
   </si>
   <si>
     <t>Tamaño de la muestra (LINKED_LIST)</t>
@@ -101,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">TIEMPOS DE EJECUCIÓN SINGLE LINKED LIST [ms] </t>
+  </si>
+  <si>
+    <t>Columna1</t>
   </si>
 </sst>
 </file>
@@ -315,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -361,9 +361,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -382,9 +379,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -422,6 +416,15 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,7 +446,122 @@
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -544,121 +662,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1055,7 +1058,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1170,6 +1173,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'01-Data'!$A$3:$A$10</c:f>
@@ -1209,6 +1270,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1257,6 +1342,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'01-Data'!$A$3:$A$10</c:f>
@@ -1296,6 +1439,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1344,6 +1511,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'01-Data'!$A$3:$A$10</c:f>
@@ -1383,6 +1608,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1431,6 +1680,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'01-Data'!$A$3:$A$10</c:f>
@@ -1470,6 +1777,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5999999999999999E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1518,6 +1849,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'01-Data'!$A$3:$A$10</c:f>
@@ -1557,6 +1946,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.23E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3000000000000001E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1568,8 +1981,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1703,6 +2117,7 @@
         <c:axId val="1328121328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2.0000000000000004E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1857,6 +2272,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1864,7 +2280,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1897,7 +2312,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1970,7 +2385,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.8784825486582758E-2"/>
+          <c:y val="7.5781388388309209E-2"/>
+          <c:w val="0.87786543564321906"/>
+          <c:h val="0.7890463422634485"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -2047,10 +2472,34 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'01-Data'!$C$14:$C$21</c:f>
+              <c:f>'01-Data'!$D$14:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2134,10 +2583,13 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'01-Data'!$D$14:$D$21</c:f>
+              <c:f>'01-Data'!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2225,6 +2677,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.2999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2312,6 +2788,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5999999999999999E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2399,6 +2899,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.43E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2546,6 +3070,8 @@
         <c:axId val="1328121328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3.0000000000000006E-2"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2700,6 +3226,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2707,7 +3234,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2740,7 +3266,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2894,6 +3420,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2977,10 +3527,34 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'01-Data'!$C$14:$C$21</c:f>
+              <c:f>'01-Data'!$D$14:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3282,6 +3856,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3289,7 +3864,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3322,7 +3896,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3476,6 +4050,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3559,10 +4157,13 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'01-Data'!$D$14:$D$21</c:f>
+              <c:f>'01-Data'!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3864,6 +4465,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3871,7 +4473,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3904,7 +4505,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4058,6 +4659,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4145,6 +4770,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.2999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4446,6 +5095,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4453,7 +5103,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4486,7 +5135,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4640,6 +5289,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5999999999999999E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4727,6 +5400,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5999999999999999E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5028,6 +5725,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5035,7 +5733,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5068,7 +5765,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5217,6 +5914,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.23E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3000000000000001E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5304,6 +6025,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.43E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5605,6 +6350,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5612,7 +6358,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5645,7 +6390,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5799,6 +6544,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5886,6 +6655,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5999999999999999E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6187,6 +6980,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6194,7 +6988,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10678,7 +11471,7 @@
     <tabColor rgb="FF9EC4F3"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0"/>
+    <sheetView zoomScale="80" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10780,7 +11573,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8676640" cy="6289040"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -10813,7 +11606,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8663983" cy="6285424"/>
+    <xdr:ext cx="8659678" cy="6283271"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -10846,7 +11639,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674100" cy="6286500"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -10879,7 +11672,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674100" cy="6286500"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -10912,7 +11705,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674100" cy="6286500"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -10945,7 +11738,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674100" cy="6286500"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10978,7 +11771,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674100" cy="6286500"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -11011,7 +11804,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674100" cy="6286500"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -11053,7 +11846,7 @@
   </autoFilter>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Porcentaje de la muestra [pct]" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Tamaño de la muestra (ARRAY_LIST)" dataDxfId="22">
+    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Columna1" dataDxfId="22">
       <calculatedColumnFormula>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Insertion Sort Array List" dataDxfId="21"/>
@@ -11082,18 +11875,18 @@
     <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="12">
       <calculatedColumnFormula>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Insertion Sort Linked List" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="Selection Sort Linked List" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{A2E3ADDC-6DD2-4948-B1D7-3CE7770DFC65}" name="Shell Sort Linked List" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{CE9F6C54-1CFA-E54C-8FB6-7838A5EDD8A3}" name="Merge Sort Linked List" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{B636EE2A-F13E-2342-B329-EE5C61F78A76}" name="Quick Sort Linked List" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Insertion Sort Linked List" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="Selection Sort Linked List" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{A2E3ADDC-6DD2-4948-B1D7-3CE7770DFC65}" name="Shell Sort Linked List" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{CE9F6C54-1CFA-E54C-8FB6-7838A5EDD8A3}" name="Merge Sort Linked List" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{B636EE2A-F13E-2342-B329-EE5C61F78A76}" name="Quick Sort Linked List" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4009FC45-711A-7E4A-BD3C-BEB6C9914449}" name="Tabla3" displayName="Tabla3" ref="A24:D32" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4009FC45-711A-7E4A-BD3C-BEB6C9914449}" name="Tabla3" displayName="Tabla3" ref="A24:D32" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A24:D32" xr:uid="{4009FC45-711A-7E4A-BD3C-BEB6C9914449}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -11101,8 +11894,8 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B41C1FDF-31EB-8245-9B27-55998E13A758}" name="Porcentaje de la muestra [pct]" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{A5516E25-E137-844A-8ACE-E872C6D3AF26}" name="Tamaño de la muestra " dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{B41C1FDF-31EB-8245-9B27-55998E13A758}" name="Porcentaje de la muestra [pct]" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{A5516E25-E137-844A-8ACE-E872C6D3AF26}" name="Tamaño de la muestra " dataDxfId="2">
       <calculatedColumnFormula>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{FCABA3BF-6045-0E48-BB37-6E396D6328EB}" name="Algoritmo iterativo (especificar) " dataDxfId="1"/>
@@ -11415,68 +12208,78 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:F10"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="3" customWidth="1"/>
-    <col min="6" max="11" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="3" customWidth="1"/>
+    <col min="6" max="11" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="A1" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="17" thickBot="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="28.2" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1">
-      <c r="A3" s="26">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="13.8">
+      <c r="A3" s="24">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="25">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="23"/>
+      <c r="C3" s="26">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D3" s="26">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E3" s="27">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F3" s="27">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G3" s="22">
+        <v>1.7000000000000001E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1">
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="13.8">
       <c r="A4" s="7">
         <v>0.05</v>
       </c>
@@ -11484,11 +12287,21 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="36">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D4" s="36">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="E4" s="19">
+        <v>7.6E-3</v>
+      </c>
+      <c r="F4" s="36">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="G4" s="13">
+        <v>1.2E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="7">
@@ -11498,11 +12311,21 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="13"/>
+      <c r="C5" s="36">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D5" s="36">
+        <v>5.3E-3</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F5" s="21">
+        <v>6.3E-3</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1.1299999999999999E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="7">
@@ -11512,11 +12335,21 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="36">
+        <v>5.3E-3</v>
+      </c>
+      <c r="D6" s="21">
+        <v>6.6E-3</v>
+      </c>
+      <c r="E6" s="19">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="F6" s="36">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1.1599999999999999E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="7">
@@ -11526,11 +12359,21 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="36">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="D7" s="36">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="E7" s="21">
+        <v>6.3E-3</v>
+      </c>
+      <c r="F7" s="21">
+        <v>6.6E-3</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1.23E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7">
@@ -11540,11 +12383,21 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="21">
+        <v>6.3E-3</v>
+      </c>
+      <c r="D8" s="21">
+        <v>6.6E-3</v>
+      </c>
+      <c r="E8" s="21">
+        <v>6.3E-3</v>
+      </c>
+      <c r="F8" s="19">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G8" s="13">
+        <v>8.9999999999999993E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="7">
@@ -11554,13 +12407,23 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="13"/>
+      <c r="C9" s="21">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="D9" s="21">
+        <v>6.6E-3</v>
+      </c>
+      <c r="E9" s="19">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F9" s="19">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="G9" s="13">
+        <v>8.3000000000000001E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" ht="16" thickBot="1">
+    <row r="10" spans="1:8" ht="15" thickBot="1">
       <c r="A10" s="9">
         <v>1</v>
       </c>
@@ -11568,52 +12431,62 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="14"/>
+      <c r="C10" s="21">
+        <v>6.3E-3</v>
+      </c>
+      <c r="D10" s="36">
+        <v>5.3E-3</v>
+      </c>
+      <c r="E10" s="19">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F10" s="36">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="G10" s="14">
+        <v>7.3000000000000001E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="E11"/>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A12" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="21"/>
+      <c r="A12" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" ht="17" thickBot="1">
+    <row r="13" spans="1:8" s="2" customFormat="1" ht="28.2" thickBot="1">
       <c r="A13" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="E13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="F13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="G13" s="28" t="s">
         <v>15</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>16</v>
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1">
+    <row r="14" spans="1:8" s="2" customFormat="1" ht="13.8">
       <c r="A14" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -11621,14 +12494,24 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="21">
+        <v>6.6E-3</v>
+      </c>
+      <c r="D14" s="21">
+        <v>6.6E-3</v>
+      </c>
+      <c r="E14" s="21">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1.4E-2</v>
+      </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" s="2" customFormat="1">
+    <row r="15" spans="1:8" s="2" customFormat="1" ht="13.8">
       <c r="A15" s="7">
         <v>0.05</v>
       </c>
@@ -11636,11 +12519,21 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="13"/>
+      <c r="C15" s="21">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D15" s="21">
+        <v>6.6E-3</v>
+      </c>
+      <c r="E15" s="21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F15" s="21">
+        <v>6.3E-3</v>
+      </c>
+      <c r="G15" s="37">
+        <v>8.9999999999999993E-3</v>
+      </c>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8">
@@ -11651,11 +12544,21 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="13"/>
+      <c r="C16" s="21">
+        <v>4.3E-3</v>
+      </c>
+      <c r="D16" s="21">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="E16" s="21">
+        <v>4.3E-3</v>
+      </c>
+      <c r="F16" s="21">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G16" s="37">
+        <v>8.9999999999999993E-3</v>
+      </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8">
@@ -11666,11 +12569,21 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="21">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D17" s="21">
+        <v>4.3E-3</v>
+      </c>
+      <c r="E17" s="21">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="F17" s="36">
+        <v>5.3E-3</v>
+      </c>
+      <c r="G17" s="13">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8">
@@ -11681,11 +12594,21 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="21">
+        <v>4.3E-3</v>
+      </c>
+      <c r="D18" s="21">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E18" s="36">
+        <v>5.3E-3</v>
+      </c>
+      <c r="F18" s="36">
+        <v>5.3E-3</v>
+      </c>
+      <c r="G18" s="13">
+        <v>8.3000000000000001E-3</v>
+      </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8">
@@ -11696,11 +12619,21 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="21">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D19" s="21">
+        <v>4.3E-3</v>
+      </c>
+      <c r="E19" s="21">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="F19" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G19" s="13">
+        <v>1.43E-2</v>
+      </c>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8">
@@ -11711,14 +12644,24 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="21">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D20" s="21">
+        <v>4.3E-3</v>
+      </c>
+      <c r="E20" s="21">
+        <v>4.3E-3</v>
+      </c>
+      <c r="F20" s="36">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="G20" s="13">
+        <v>8.6E-3</v>
+      </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16" thickBot="1">
+    <row r="21" spans="1:8" ht="15" thickBot="1">
       <c r="A21" s="9">
         <v>1</v>
       </c>
@@ -11726,123 +12669,165 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="14"/>
+      <c r="C21" s="23">
+        <v>3.3E-3</v>
+      </c>
+      <c r="D21" s="23">
+        <v>4.3E-3</v>
+      </c>
+      <c r="E21" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F21" s="23">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="G21" s="14">
+        <v>8.6E-3</v>
+      </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16" thickBot="1"/>
+    <row r="22" spans="1:8" ht="15" thickBot="1"/>
     <row r="23" spans="1:8">
-      <c r="A23" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
+      <c r="A23" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
     </row>
     <row r="24" spans="1:8" ht="39" customHeight="1" thickBot="1">
       <c r="A24" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>3</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="18">
+      <c r="A25" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="B25" s="12">
         <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
         <v>50</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
+      <c r="C25" s="38">
+        <v>6.6E-3</v>
+      </c>
+      <c r="D25" s="38">
+        <v>8.0000000000000002E-3</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="19">
+      <c r="A26" s="18">
         <v>0.05</v>
       </c>
       <c r="B26" s="5">
         <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
         <v>500</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="C26" s="38">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D26" s="38">
+        <v>5.5999999999999999E-3</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="18">
+      <c r="A27" s="17">
         <v>0.1</v>
       </c>
       <c r="B27" s="12">
         <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
         <v>1000</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
+      <c r="C27" s="38">
+        <v>4.3E-3</v>
+      </c>
+      <c r="D27" s="38">
+        <v>6.3E-3</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="19">
+      <c r="A28" s="18">
         <v>0.2</v>
       </c>
       <c r="B28" s="5">
         <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
         <v>2000</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="C28" s="38">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D28" s="38">
+        <v>5.5999999999999999E-3</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="18">
+      <c r="A29" s="17">
         <v>0.3</v>
       </c>
       <c r="B29" s="12">
         <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
         <v>3000</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
+      <c r="C29" s="38">
+        <v>4.3E-3</v>
+      </c>
+      <c r="D29" s="38">
+        <v>6.6E-3</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="19">
+      <c r="A30" s="18">
         <v>0.5</v>
       </c>
       <c r="B30" s="5">
         <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
         <v>5000</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="C30" s="38">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D30" s="38">
+        <v>7.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="18">
+      <c r="A31" s="17">
         <v>0.8</v>
       </c>
       <c r="B31" s="12">
         <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
         <v>8000</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
+      <c r="C31" s="38">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D31" s="38">
+        <v>7.3000000000000001E-3</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="19">
+      <c r="A32" s="18">
         <v>1</v>
       </c>
       <c r="B32" s="5">
         <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
         <v>10000</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="C32" s="38">
+        <v>3.3E-3</v>
+      </c>
+      <c r="D32" s="38">
+        <v>5.5999999999999999E-3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11861,128 +12846,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
-      <UserInfo>
-        <DisplayName>Carlos Andres Lozano Garzon</DisplayName>
-        <AccountId>13</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dario Ernesto Correal Torres</DisplayName>
-        <AccountId>15</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Mario  Fernando De la rosa Rosero</DisplayName>
-        <AccountId>16</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Christian Camilo Aparicio Baquen</DisplayName>
-        <AccountId>50</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Arturo Henao Chaparro</DisplayName>
-        <AccountId>48</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Luis Esteban Florez Salamanca</DisplayName>
-        <AccountId>33</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Ivan David Salazar Cardenas</DisplayName>
-        <AccountId>52</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Juan Carlos Marin Morales</DisplayName>
-        <AccountId>53</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sofia Duque Gomez</DisplayName>
-        <AccountId>60</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Andres Felipe Romero Brand</DisplayName>
-        <AccountId>91</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lindsay Vanessa Pinto Morato</DisplayName>
-        <AccountId>92</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Miguel Angel Acosta Walteros</DisplayName>
-        <AccountId>94</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Juan David Diaz Ipuz</DisplayName>
-        <AccountId>90</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lily Aitana valentina Duque Chavez</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Isaac David Bermudez Lara</DisplayName>
-        <AccountId>95</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Alejandro Angel Fuertes</DisplayName>
-        <AccountId>55</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jeniffer Liliam Mendoza Espinosa</DisplayName>
-        <AccountId>97</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kevin Cohen Solano</DisplayName>
-        <AccountId>93</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Cesar Luis Moreno Gonzalez</DisplayName>
-        <AccountId>96</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jose Cristobal Arroyo Castellanos</DisplayName>
-        <AccountId>54</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <TaxCatchAll xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="164883f8-7691-4ecf-b54a-664c0d0edefe">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="17" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="af74a0f8eb440a60883e9dd833f0742f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5ceeff32ffca1089660572a8ebd1782" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -12231,10 +13094,143 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
+      <UserInfo>
+        <DisplayName>Carlos Andres Lozano Garzon</DisplayName>
+        <AccountId>13</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dario Ernesto Correal Torres</DisplayName>
+        <AccountId>15</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Mario  Fernando De la rosa Rosero</DisplayName>
+        <AccountId>16</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Christian Camilo Aparicio Baquen</DisplayName>
+        <AccountId>50</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Arturo Henao Chaparro</DisplayName>
+        <AccountId>48</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Luis Esteban Florez Salamanca</DisplayName>
+        <AccountId>33</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Ivan David Salazar Cardenas</DisplayName>
+        <AccountId>52</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Juan Carlos Marin Morales</DisplayName>
+        <AccountId>53</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sofia Duque Gomez</DisplayName>
+        <AccountId>60</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Andres Felipe Romero Brand</DisplayName>
+        <AccountId>91</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Lindsay Vanessa Pinto Morato</DisplayName>
+        <AccountId>92</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Miguel Angel Acosta Walteros</DisplayName>
+        <AccountId>94</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Juan David Diaz Ipuz</DisplayName>
+        <AccountId>90</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Lily Aitana valentina Duque Chavez</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Isaac David Bermudez Lara</DisplayName>
+        <AccountId>95</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Daniel Alejandro Angel Fuertes</DisplayName>
+        <AccountId>55</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jeniffer Liliam Mendoza Espinosa</DisplayName>
+        <AccountId>97</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kevin Cohen Solano</DisplayName>
+        <AccountId>93</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Cesar Luis Moreno Gonzalez</DisplayName>
+        <AccountId>96</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jose Cristobal Arroyo Castellanos</DisplayName>
+        <AccountId>54</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <TaxCatchAll xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="164883f8-7691-4ecf-b54a-664c0d0edefe">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24D72429-8592-4E2D-9A60-DFD77A3B0B84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12251,20 +13247,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24D72429-8592-4E2D-9A60-DFD77A3B0B84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>